--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/67/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/67/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.3027302730273028</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1291.291291291291</v>
+        <v>1159.92599259926</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.03442344234423442</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5165165165165165</v>
+        <v>0.6684668466846685</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1957.957957957958</v>
+        <v>1264.816481648165</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397.3973973973974</v>
+        <v>423.1323132313231</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>628.6286286286287</v>
+        <v>114.7974797479748</v>
       </c>
     </row>
   </sheetData>
